--- a/uploads/excel/wesm_purchases_adjust0.xlsx
+++ b/uploads/excel/wesm_purchases_adjust0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Billing-pc\cenpri billing\BS WESM\Adjustment Billing Statement\2023\1 Due on Jan 25 2023\EXCEL\EXCEL Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Billing-pc\cenpri billing\BS WESM\Adjustment Billing Statement\2023\2 Due on Feb 25 2023\Excel\PURCHASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -199,6 +199,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">FOR THE ACCOUNT OF:  CENPRI_SS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>ADDRESS: #88 Eloisa Q's Bldg., Corner Rizal -</t>
     </r>
     <r>
@@ -272,7 +281,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>January 15, 2023</t>
+      <t>February 15, 2023</t>
     </r>
   </si>
   <si>
@@ -293,7 +302,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Mar 26 - Apr 25, 2022</t>
+      <t>Dec 26 - Jan 25, 2022</t>
     </r>
   </si>
   <si>
@@ -314,7 +323,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>January 25, 2023</t>
+      <t>February 25, 2023</t>
     </r>
   </si>
   <si>
@@ -526,7 +535,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Additional Compensation due to Secondary Price Cap of CENPRI for the additional intervals for the</t>
+      <t>Additional Compensation due on the Claim of SIPC for Must Run Unit (MRU) for the period December</t>
     </r>
     <r>
       <rPr>
@@ -542,7 +551,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>billing period March 26 - April 25, 2022 (installment 4of4)</t>
+      <t>26, 2021 - January 25, 2022</t>
     </r>
   </si>
   <si>
@@ -573,7 +582,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Billing Month (Period): April 2022 (Mar 26 - Apr 25, 2022)</t>
+      <t>Billing Month (Period): January 2022 (Dec 26 - Jan 25, 2022)</t>
     </r>
   </si>
   <si>
@@ -842,7 +851,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sales</t>
+      <t>Purchases</t>
     </r>
   </si>
   <si>
@@ -894,7 +903,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sales</t>
+      <t>Purchases</t>
     </r>
   </si>
   <si>
@@ -966,7 +975,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sales</t>
+      <t>Purchases</t>
     </r>
   </si>
   <si>
@@ -998,8 +1007,94 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sales</t>
-    </r>
+      <t>Purchases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EWT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SIPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GEN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note: Sales/Purchases Include Net Settlement Surplus (NSS) flowback and other flowback amounts.</t>
+    </r>
+  </si>
+  <si>
+    <t>Item No.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>TS-WAC-187F79-0000021</t>
+  </si>
+  <si>
+    <t>WESM TRANSACTION ALLOCATION
+CENPRI / CENTRAL NEGROS POWER RELIABILITY, INC.
+Billing Month (Period): January 2022 (Dec 26 - Jan 25, 2022)                                                                                                                                                                                                                                                                                                TS-WAC-187F79-0000021</t>
   </si>
   <si>
     <r>
@@ -1030,7 +1125,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Purchases</t>
+      <t>Sales</t>
     </r>
   </si>
   <si>
@@ -1082,7 +1177,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Purchases</t>
+      <t>Sales</t>
     </r>
   </si>
   <si>
@@ -1154,7 +1249,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Purchases</t>
+      <t>Sales</t>
     </r>
   </si>
   <si>
@@ -1186,112 +1281,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Purchases</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EWT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SUWECO2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SUWECO2SS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LOAD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note: Sales/Purchases Include Net Settlement Surplus (NSS) flowback and other flowback amounts.</t>
-    </r>
-  </si>
-  <si>
-    <t>Item No.</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>TS-WAC-190F70-0000001</t>
-  </si>
-  <si>
-    <t>SUWECO2</t>
-  </si>
-  <si>
-    <t>SUWECO2SS</t>
-  </si>
-  <si>
-    <t>LOAD</t>
+      <t>Sales</t>
+    </r>
+  </si>
+  <si>
+    <t>SIPC</t>
+  </si>
+  <si>
+    <t>GEN</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>WESM TRANSACTION ALLOCATION
-CENPRI / CENTRAL NEGROS POWER RELIABILITY, INC.
-Billing Month (Period): April 2022 (Mar 26 - Apr 25, 2022)                                                                                                                                                                                                                                                                                                           TS-WAC-190F70-0000001</t>
-  </si>
-  <si>
-    <t>AddCom - SPC 4/4</t>
+    <t xml:space="preserve">AddCom - MRU </t>
   </si>
 </sst>
 </file>
@@ -1300,8 +1309,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###0.00;###0.00"/>
-    <numFmt numFmtId="165" formatCode="###0.00_);\(###0.00\)"/>
+    <numFmt numFmtId="164" formatCode="###0.00_);\(###0.00\)"/>
+    <numFmt numFmtId="165" formatCode="###0.00;###0.00"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
@@ -1703,13 +1712,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1725,29 +1731,86 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1773,9 +1836,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1818,6 +1878,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1827,15 +1896,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1863,6 +1923,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1899,20 +1968,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1923,82 +1983,22 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2306,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:Q32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2317,8 +2317,8 @@
     <col min="1" max="1" width="2.1640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="6.83203125" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" customWidth="1"/>
     <col min="8" max="8" width="2.1640625" customWidth="1"/>
@@ -2340,34 +2340,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="17"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2382,636 +2382,637 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:18" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="17"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="98" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="63"/>
+    </row>
+    <row r="18" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="70">
+        <v>-47.12</v>
+      </c>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="72"/>
+    </row>
+    <row r="19" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="54"/>
+    </row>
+    <row r="20" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="54"/>
+    </row>
+    <row r="21" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55">
+        <v>-47.12</v>
+      </c>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="57"/>
+    </row>
+    <row r="22" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="55">
+        <v>-5.65</v>
+      </c>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="57"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="58">
+        <v>0.94</v>
+      </c>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="60"/>
+    </row>
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="54"/>
+    </row>
+    <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="54"/>
+    </row>
+    <row r="27" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="54"/>
+    </row>
+    <row r="28" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="35"/>
+    </row>
+    <row r="29" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="35"/>
+    </row>
+    <row r="30" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="35"/>
+    </row>
+    <row r="33" spans="1:27" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:27" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="35"/>
+    </row>
+    <row r="35" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="43"/>
+      <c r="E35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" s="44"/>
+      <c r="N35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35" s="9"/>
+      <c r="P35" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="46"/>
-    </row>
-    <row r="18" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52"/>
-    </row>
-    <row r="19" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
-    </row>
-    <row r="20" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="41">
-        <v>4.67</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
-    </row>
-    <row r="21" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="41">
-        <v>4.67</v>
-      </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="37"/>
-    </row>
-    <row r="22" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="37"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="38">
-        <v>-0.09</v>
-      </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="37"/>
-    </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
-    </row>
-    <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-    </row>
-    <row r="27" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="37"/>
-    </row>
-    <row r="28" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="17"/>
-    </row>
-    <row r="29" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="17"/>
-    </row>
-    <row r="30" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="1:27" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="17"/>
-    </row>
-    <row r="34" spans="1:27" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27" t="s">
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M34" s="27"/>
-      <c r="N34" s="7" t="s">
+      <c r="W35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="27" t="s">
+      <c r="X35" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27" t="s">
+      <c r="Y35" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7" t="s">
+      <c r="Z35" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="W34" s="7" t="s">
+      <c r="AA35" s="45"/>
+    </row>
+    <row r="36" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="X34" s="7" t="s">
+      <c r="C36" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Y34" s="7" t="s">
+      <c r="F36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Z34" s="26" t="s">
+      <c r="G36" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="AA34" s="28"/>
-    </row>
-    <row r="35" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="8" t="s">
+      <c r="H36" s="39"/>
+      <c r="I36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="40"/>
+      <c r="L36" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="M36" s="39"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V36" s="7">
+        <v>-47.12</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="X36" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>-5.65</v>
+      </c>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="8">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="35"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="M35" s="21"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P35" s="23">
-        <v>4.67</v>
-      </c>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V35" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="W35" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="X35" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y35" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="10">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="17"/>
-    </row>
-    <row r="37" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="20"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -3056,23 +3057,23 @@
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="J29:Q29"/>
     <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="A33:U33"/>
-    <mergeCell ref="V33:AA33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="B36:AA36"/>
-    <mergeCell ref="A37:AA37"/>
+    <mergeCell ref="A34:U34"/>
+    <mergeCell ref="V34:AA34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="B37:AA37"/>
+    <mergeCell ref="A38:AA38"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="P36:Q36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3087,138 +3088,140 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:13" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
+      <c r="G3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="7">
+        <v>-47.12</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="K3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="7">
+        <v>-5.65</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="68">
-        <v>4.67</v>
-      </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="10">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3232,194 +3235,198 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.33203125" style="73" customWidth="1"/>
-    <col min="6" max="8" width="9.33203125" style="73"/>
-    <col min="9" max="12" width="12.1640625" style="73" customWidth="1"/>
-    <col min="13" max="16384" width="9.33203125" style="73"/>
+    <col min="1" max="1" width="23.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.33203125" style="15" customWidth="1"/>
+    <col min="6" max="8" width="9.33203125" style="15"/>
+    <col min="9" max="12" width="12.1640625" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="9.33203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+    </row>
+    <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="16">
+        <v>44972</v>
+      </c>
+      <c r="C2" s="16">
+        <v>44556</v>
+      </c>
+      <c r="D2" s="16">
+        <v>44586</v>
+      </c>
+      <c r="E2" s="16">
+        <v>44982</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="27">
+        <v>-47.12</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="72"/>
-    </row>
-    <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="74">
-        <v>44941</v>
-      </c>
-      <c r="C2" s="74">
-        <v>44646</v>
-      </c>
-      <c r="D2" s="74">
-        <v>44676</v>
-      </c>
-      <c r="E2" s="74">
-        <v>44951</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="77"/>
-    </row>
-    <row r="3" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="83">
-        <v>1</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86">
-        <v>4.67</v>
-      </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85">
-        <v>-0.09</v>
-      </c>
-      <c r="N4" s="87">
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="27">
+        <v>-5.65</v>
+      </c>
+      <c r="M4" s="27">
+        <v>0.94</v>
+      </c>
+      <c r="N4" s="29">
         <f>SUM(I4:M4)</f>
-        <v>4.58</v>
+        <v>-51.83</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="91"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="94"/>
+      <c r="A6" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="95"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="95"/>
+      <c r="A10" s="31"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
+      <c r="A12" s="31"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="95"/>
-      <c r="E16" s="95"/>
+      <c r="B16" s="31"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="96"/>
+      <c r="A18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/uploads/excel/wesm_purchases_adjust0.xlsx
+++ b/uploads/excel/wesm_purchases_adjust0.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CENPRI BILLING\BS WESM\Adjustment Billing Statement\2023\12 Due on Dec 25 2023\Excel\PURCHASES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CENPRI BILLING\BS WESM\Adjustment Billing Statement\2024\05May2024\Excel\PURCHASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sorted (Purchases)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sorted (Purchases) (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <r>
       <rPr>
@@ -270,7 +270,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>TS-WAC-205F40-0000025</t>
+      <t>TS-WAC-210F10-0000023</t>
     </r>
   </si>
   <si>
@@ -291,7 +291,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>December 15, 2023</t>
+      <t>May 15, 2024</t>
     </r>
   </si>
   <si>
@@ -312,7 +312,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Jun 26 - Jul 25, 2023</t>
+      <t>Nov 26 - Dec 25, 2023</t>
     </r>
   </si>
   <si>
@@ -333,7 +333,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>December 25, 2023</t>
+      <t>May 25, 2024</t>
     </r>
   </si>
   <si>
@@ -545,7 +545,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Additional Compensation due on the Claim of EAUC for Secondary Price Cap (SPC) for the period</t>
+      <t>Additional Compensation due on the Claim of SPCPOWER for Price Substitution Methodology (PSM)</t>
     </r>
     <r>
       <rPr>
@@ -561,39 +561,738 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>June 26 - July 25, 2023</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">WESM TRANSACTION ALLOCATION
+      <t>for the period November 26 - December 25, 2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WESM TRANSACTION ALLOCATION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CENPRI / CENTRAL NEGROS POWER RELIABILITY, INC.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Billing Month (Period): December 2023 (Nov 26 - Dec 25, 2023)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>STL ID / TPShort</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Billing ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Facility</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WHT
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">CENPRI / CENTRAL NEGROS POWER RELIABILITY, INC.
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Agent</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tag</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ITH
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Billing Month (Period): July 2023 (Jun 26 - Jul 25, 2023)</t>
-    </r>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tag</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Non</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vatable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tag</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zero-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rated</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tag</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vatable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sales</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zero</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rated</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sales</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zero</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rated</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EcoZones</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sales</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vat On</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sales</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vatable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Purchases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zero</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rated</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Purchases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zero</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rated</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EcoZones</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Purchases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vat On</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Purchases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EWT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SPCPOWER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GEN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note: Sales/Purchases Include Net Settlement Surplus (NSS) flowback and other flowback amounts.</t>
+    </r>
+  </si>
+  <si>
+    <t>Item No.</t>
   </si>
   <si>
     <r>
@@ -627,18 +1326,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Billing ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Facility</t>
     </r>
     <r>
@@ -714,8 +1401,37 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ITH
-</t>
+      <t>Non</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vatable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -737,18 +1453,50 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Non</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>Zero-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rated</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tag</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -777,91 +1525,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Tag</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zero-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>rated</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tag</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vatable</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sales</t>
+      <t>Purchases</t>
     </r>
   </si>
   <si>
@@ -913,7 +1577,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sales</t>
+      <t>Purchases</t>
     </r>
   </si>
   <si>
@@ -985,7 +1649,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sales</t>
+      <t>Purchases</t>
     </r>
   </si>
   <si>
@@ -1017,38 +1681,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sales</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vatable</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Purchases</t>
     </r>
   </si>
@@ -1061,233 +1693,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Zero</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rated</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Purchases</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zero</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rated</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EcoZones</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Purchases</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vat On</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Purchases</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>EWT</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EAUC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GEN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>N</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note: Sales/Purchases Include Net Settlement Surplus (NSS) flowback and other flowback amounts.</t>
-    </r>
-  </si>
-  <si>
-    <t>Item No.</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>EAUC</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SPCPOWER</t>
   </si>
   <si>
     <t>GEN</t>
@@ -1302,23 +1718,22 @@
     <t>-</t>
   </si>
   <si>
-    <t>TS-WAC-205F40-0000025</t>
-  </si>
-  <si>
-    <t>AddCom - SPC</t>
+    <t>TS-WAC-210F10-0000023</t>
+  </si>
+  <si>
+    <t>AddCom - PSM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_);\(###0.00\)"/>
-    <numFmt numFmtId="165" formatCode="###0.00;###0.00"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1357,6 +1772,11 @@
     <font>
       <b/>
       <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1439,17 +1859,24 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="7"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="7"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -1465,6 +1892,13 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1495,12 +1929,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1555,17 +2004,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF003F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1594,17 +2032,6 @@
       <left style="thin">
         <color rgb="FF003F7F"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF003F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1705,6 +2132,32 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1715,15 +2168,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1733,73 +2183,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,7 +2252,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1817,8 +2264,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1826,7 +2273,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1835,14 +2282,11 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1850,8 +2294,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1859,8 +2303,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1868,7 +2312,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,16 +2321,19 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1895,19 +2342,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1922,88 +2363,106 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2311,41 +2770,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:G15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" customWidth="1"/>
-    <col min="9" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="1.1640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="7" width="2.1640625" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.1640625" customWidth="1"/>
+    <col min="13" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
     <col min="17" max="17" width="6.83203125" customWidth="1"/>
     <col min="18" max="19" width="2.1640625" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" customWidth="1"/>
-    <col min="21" max="21" width="5.83203125" customWidth="1"/>
-    <col min="22" max="22" width="16.1640625" customWidth="1"/>
-    <col min="23" max="25" width="15.1640625" customWidth="1"/>
-    <col min="26" max="26" width="8" customWidth="1"/>
-    <col min="27" max="27" width="10.5" customWidth="1"/>
+    <col min="20" max="21" width="16.1640625" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" customWidth="1"/>
+    <col min="23" max="24" width="16.1640625" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" customWidth="1"/>
+    <col min="26" max="26" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14"/>
@@ -2364,15 +2821,15 @@
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
-      <c r="R1" s="16"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2387,405 +2844,405 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:18" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="17" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="17" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="44"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51">
-        <v>-17.38</v>
-      </c>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="53"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="47">
+        <v>-0.01</v>
+      </c>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="49"/>
     </row>
     <row r="19" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="33" t="s">
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="35"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="33" t="s">
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="35"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36">
-        <v>-17.38</v>
-      </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="35">
+        <v>-0.01</v>
+      </c>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36">
-        <v>-2.09</v>
-      </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="38"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="39">
-        <v>0.35</v>
-      </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33" t="s">
+      <c r="F24" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="35"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="33" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="35"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="33" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="35"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="34"/>
     </row>
     <row r="28" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="15"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
-      <c r="Q28" s="16"/>
+      <c r="Q28" s="28"/>
     </row>
     <row r="29" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="15"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
-      <c r="Q29" s="16"/>
+      <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="14"/>
@@ -2803,255 +3260,207 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
-      <c r="Q32" s="16"/>
-    </row>
-    <row r="33" spans="1:27" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="Q32" s="28"/>
+    </row>
+    <row r="33" spans="1:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="16"/>
-    </row>
-    <row r="34" spans="1:27" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
+    </row>
+    <row r="34" spans="1:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="24" t="s">
+    </row>
+    <row r="35" spans="1:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="7" t="s">
+    </row>
+    <row r="36" spans="1:25" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="B36" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="7" t="s">
+      <c r="E36" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="F36" s="16"/>
+      <c r="G36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25" t="s">
+      <c r="H36" s="16"/>
+      <c r="I36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M34" s="25"/>
-      <c r="N34" s="7" t="s">
+      <c r="J36" s="16"/>
+      <c r="K36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="25" t="s">
+      <c r="L36" s="16"/>
+      <c r="M36" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25" t="s">
+      <c r="N36" s="16"/>
+      <c r="O36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7" t="s">
+      <c r="P36" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="W34" s="7" t="s">
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="X34" s="7" t="s">
+      <c r="U36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Y34" s="7" t="s">
+      <c r="V36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Z34" s="24" t="s">
+      <c r="W36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AA34" s="26"/>
-    </row>
-    <row r="35" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="8" t="s">
+      <c r="X36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="9" t="s">
+      <c r="Y36" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="9" t="s">
+    </row>
+    <row r="37" spans="1:25" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="B37" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="20" t="s">
+      <c r="E37" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="M35" s="20"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P35" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="V35" s="10">
-        <v>-17.38</v>
-      </c>
-      <c r="W35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y35" s="10">
-        <v>-2.09</v>
-      </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="11">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="16"/>
-    </row>
-    <row r="37" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="F37" s="21"/>
+      <c r="G37" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="19"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="21"/>
+      <c r="O37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U37" s="11">
+        <v>-0.01</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y37" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+    </row>
+    <row r="39" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="56">
     <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:Q24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:Q24"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="J26:Q26"/>
     <mergeCell ref="A27:I27"/>
@@ -3061,23 +3470,21 @@
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="J29:Q29"/>
     <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="A33:U33"/>
-    <mergeCell ref="V33:AA33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="B36:AA36"/>
-    <mergeCell ref="A37:AA37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A38:Y38"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3085,148 +3492,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+      <selection activeCell="C2" sqref="C2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    <row r="1" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="B1" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="D1" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="E1" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="F1" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="I1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="11">
+        <v>-0.01</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="L2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="10">
-        <v>-17.38</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="10">
-        <v>-2.09</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3236,205 +3600,242 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.33203125" style="72" customWidth="1"/>
-    <col min="6" max="8" width="9.33203125" style="72"/>
-    <col min="9" max="12" width="12.1640625" style="72" customWidth="1"/>
-    <col min="13" max="16384" width="9.33203125" style="72"/>
+    <col min="1" max="1" width="23.5" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.33203125" style="70" customWidth="1"/>
+    <col min="6" max="8" width="9.33203125" style="70"/>
+    <col min="9" max="12" width="12.1640625" style="70" customWidth="1"/>
+    <col min="13" max="16384" width="9.33203125" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="71"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="71">
+        <v>45427</v>
+      </c>
+      <c r="C2" s="71">
+        <v>45256</v>
+      </c>
+      <c r="D2" s="71">
+        <v>45285</v>
+      </c>
+      <c r="E2" s="71">
+        <v>45437</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+    </row>
+    <row r="3" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="73">
-        <v>45275</v>
-      </c>
-      <c r="C2" s="73">
-        <v>45103</v>
-      </c>
-      <c r="D2" s="73">
-        <v>45132</v>
-      </c>
-      <c r="E2" s="73">
-        <v>45285</v>
-      </c>
-      <c r="F2" s="74" t="s">
+      <c r="I3" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
-    </row>
-    <row r="3" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="81" t="s">
+      <c r="J3" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="80">
+        <v>1</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="83">
+        <v>-0.01</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="85">
+        <f>SUM(I4:M4)</f>
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="83">
+        <f>SUM(I4:I4)</f>
+        <v>-0.01</v>
+      </c>
+      <c r="J5" s="84">
+        <f>SUM(J4:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="84">
+        <f>SUM(K4:K4)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="83">
+        <f>SUM(L4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="83">
+        <f>SUM(M4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="85">
+        <f>SUM(N4:N4)</f>
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="93" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="82">
-        <v>1</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="84">
-        <v>-17.38</v>
-      </c>
-      <c r="J4" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="84">
-        <v>-2.09</v>
-      </c>
-      <c r="M4" s="84">
-        <v>0.35</v>
-      </c>
-      <c r="N4" s="86">
-        <f>SUM(I4:M4)</f>
-        <v>-19.119999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="94"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="94"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="94"/>
-      <c r="E16" s="94"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="95"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="95"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="96"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="96"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="96"/>
+      <c r="E17" s="96"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/uploads/excel/wesm_purchases_adjust0.xlsx
+++ b/uploads/excel/wesm_purchases_adjust0.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="98">
   <si>
     <r>
       <rPr>
@@ -1357,9 +1357,6 @@
   </si>
   <si>
     <t>Adj.changes in MQ</t>
-  </si>
-  <si>
-    <t>ADVENT_RES</t>
   </si>
 </sst>
 </file>
@@ -3942,7 +3939,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>89</v>

--- a/uploads/excel/wesm_purchases_adjust0.xlsx
+++ b/uploads/excel/wesm_purchases_adjust0.xlsx
@@ -3831,7 +3831,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4352,6 +4352,6 @@
     <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/excel/wesm_purchases_adjust0.xlsx
+++ b/uploads/excel/wesm_purchases_adjust0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="186">
   <si>
     <r>
       <rPr>
@@ -169,7 +169,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>TS-WAD-212F31-0028442</t>
+      <t>TS-WAD-216F292-0033550</t>
     </r>
   </si>
   <si>
@@ -190,7 +190,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>August 15, 2024</t>
+      <t>December 15, 2024</t>
     </r>
   </si>
   <si>
@@ -211,7 +211,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Jan 26 - Feb 25, 2024</t>
+      <t>May 26 - Jun 25, 2024</t>
     </r>
   </si>
   <si>
@@ -232,7 +232,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>August 25, 2024</t>
+      <t>December 25, 2024</t>
     </r>
   </si>
   <si>
@@ -244,154 +244,6 @@
         <family val="2"/>
       </rPr>
       <t>Summary:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Description</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sales*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(+) WESM Payable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Purchases*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(-) WESM Receivable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>VATable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zero Rated</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zero-Rated (Eco-Zone Enterprise)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Net Sale / Purchase</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vat on Energy</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EWT, Php</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Energy Quantity, MWh</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Net Energy Quantity, MWh</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OTHER SETTLEMENT INFORMATION</t>
     </r>
   </si>
   <si>
@@ -403,7 +255,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>*Net Settlement Surplus (NSS), Php:</t>
+      <t>Description</t>
     </r>
   </si>
   <si>
@@ -415,13 +267,231 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">Sales*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(+) WESM Payable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Purchases*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(-) WESM Receivable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VATable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zero Rated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Zero-Rated (Eco-Zone Enterprise)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Net Sale / Purchase</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vat on Energy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EWT, Php</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Total Amount, Php</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Energy Quantity, MWh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OTHER SETTLEMENT INFORMATION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*Bilateral LLCC, Php:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*Net Settlement Surplus (NSS), Php:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*Residual Amount, Php:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>*Flowback Due to DOE-DC2021-06-0013 (Gen-X), Php:</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="8"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gross Energy Settlement Quantity (GESQ), MWh:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bilateral Contract Quantity (BCQ), MWh:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>% Spot:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -431,6 +501,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bilateral LLCC is associated with the BCQ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Residual Amount is the Net Amount of the Bilateral LLCC and NSS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <i/>
         <sz val="8"/>
         <rFont val="Arial"/>
@@ -446,27 +536,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Adjustment due to the changes in MQ of trading participants for the billing period January 26 - February 25, 2024</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Page 1 of 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Printed on : Thu Aug 15 08:55:45 PHT 2024</t>
+      <t>Adjustment due to the changes in GESQ of trading participants for the billing period May 26, 2024 - June 25, 2024.</t>
     </r>
   </si>
   <si>
@@ -499,7 +569,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Billing Month (Period):February 2024 (Jan 26 - Feb 25, 2024)</t>
+      <t>Billing Month (Period):June 2024 (May 26 - Jun 25, 2024)</t>
     </r>
   </si>
   <si>
@@ -768,17 +838,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ADVENTRE S</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ADVENT RES</t>
+      <t>ACENGES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ACENGE S</t>
     </r>
   </si>
   <si>
@@ -818,6 +888,46 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>APRI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>APRIBIN SS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HIGHST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALECO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>BGIGES</t>
     </r>
   </si>
@@ -838,6 +948,226 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>BATELEC1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BATELE C1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BLIRANGE O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BLIRAN GEOSS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CEPALCO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CEPALC O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CANOREC O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CANOR ECO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CASUREC O1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CASURE CO1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CASUREC O2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CASURE CO2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CASUREC O3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CASURE CO3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CASUREC O4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CASURE CO4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CEBECO1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CEBECO 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECORP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECOR P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DASUREC O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DASURE CO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>GCGIGES</t>
     </r>
   </si>
@@ -888,7 +1218,237 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NGCP</t>
+      <t>MORE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MERALCO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CEPZSE M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MPPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LUECO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NORECO2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOREC O2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OEDC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PELCO2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PANELCO1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PANELC O1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PENELCO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PENELC O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PSALMGMI N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LASURE CO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GEN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SEZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CCC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ZAMECO1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ZAMEC O1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ZAMECO2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ZAMEC O2</t>
     </r>
   </si>
   <si>
@@ -900,15 +1460,6 @@
       </rPr>
       <t>Note: Sales/Purchases Include Net Settlement Surplus (NSS) flowback</t>
     </r>
-  </si>
-  <si>
-    <t>ADVENTRES</t>
-  </si>
-  <si>
-    <t>GCGIGES</t>
-  </si>
-  <si>
-    <t>GCGIRES</t>
   </si>
   <si>
     <t>Item No.</t>
@@ -1322,14 +1873,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note: Sales/Purchases Include Net Settlement Surplus (NSS) flowback and other flowback amounts.</t>
-    </r>
+    <t>ACENGES</t>
   </si>
   <si>
     <t>LOAD</t>
@@ -1341,22 +1885,130 @@
     <t>N</t>
   </si>
   <si>
+    <t>APRI</t>
+  </si>
+  <si>
+    <t>HIGHST</t>
+  </si>
+  <si>
+    <t>ALECO</t>
+  </si>
+  <si>
     <t>BGIGES</t>
   </si>
   <si>
     <t>BGIRES</t>
   </si>
   <si>
-    <t>GCGIRE SVIS</t>
-  </si>
-  <si>
-    <t>NGCP</t>
-  </si>
-  <si>
-    <t>TS-WAD-212F31-0028442</t>
-  </si>
-  <si>
-    <t>Adj.changes in MQ</t>
+    <t>BATELEC1</t>
+  </si>
+  <si>
+    <t>CEPALCO</t>
+  </si>
+  <si>
+    <t>CEBECO1</t>
+  </si>
+  <si>
+    <t>DECORP</t>
+  </si>
+  <si>
+    <t>GCGIGES</t>
+  </si>
+  <si>
+    <t>GCGIRES</t>
+  </si>
+  <si>
+    <t>MORE</t>
+  </si>
+  <si>
+    <t>MERALCO</t>
+  </si>
+  <si>
+    <t>MPPC</t>
+  </si>
+  <si>
+    <t>LUECO</t>
+  </si>
+  <si>
+    <t>NORECO2</t>
+  </si>
+  <si>
+    <t>OEDC</t>
+  </si>
+  <si>
+    <t>PELCO2</t>
+  </si>
+  <si>
+    <t>PANELCO1</t>
+  </si>
+  <si>
+    <t>PENELCO</t>
+  </si>
+  <si>
+    <t>SHPC</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>SEZ</t>
+  </si>
+  <si>
+    <t>TPC</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>ZAMECO1</t>
+  </si>
+  <si>
+    <t>ZAMECO2</t>
+  </si>
+  <si>
+    <t>TS-WAD-216F292-0033550</t>
+  </si>
+  <si>
+    <t>Adj.changes in GESQ</t>
+  </si>
+  <si>
+    <t>APRIBINSS</t>
+  </si>
+  <si>
+    <t>BLIRANGEOSS</t>
+  </si>
+  <si>
+    <t>CANORECO</t>
+  </si>
+  <si>
+    <t>CASURECO1</t>
+  </si>
+  <si>
+    <t>CASURECO2</t>
+  </si>
+  <si>
+    <t>CASURECO3</t>
+  </si>
+  <si>
+    <t>CASURECO4</t>
+  </si>
+  <si>
+    <t>DASURECO</t>
+  </si>
+  <si>
+    <t>GCGIRESVIS</t>
+  </si>
+  <si>
+    <t>CEPZSEM</t>
+  </si>
+  <si>
+    <t>LASURECO</t>
+  </si>
+  <si>
+    <t>BLIRANGEO</t>
+  </si>
+  <si>
+    <t>PSALMGMIN</t>
   </si>
 </sst>
 </file>
@@ -1364,12 +2016,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="###0.00;###0.00"/>
-    <numFmt numFmtId="165" formatCode="###0.00_);\(###0.00\)"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="###0.00;###0.00"/>
+    <numFmt numFmtId="166" formatCode="###0.00_);\(###0.00\)"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1405,7 +2057,7 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1415,8 +2067,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="7"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1481,15 +2132,13 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1546,11 +2195,6 @@
     </font>
     <font>
       <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1580,7 +2224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1666,23 +2310,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1704,6 +2337,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1719,10 +2355,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,19 +2370,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1770,43 +2403,37 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,15 +2481,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1872,23 +2490,32 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1908,16 +2535,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1928,24 +2555,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2252,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:H15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2284,23 +2893,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="78.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="42"/>
     </row>
     <row r="2" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2348,1119 +2957,3872 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:17" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+    <row r="17" spans="1:17" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="54" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="56"/>
-    </row>
-    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+    </row>
+    <row r="18" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="57">
-        <v>0</v>
-      </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="60">
-        <v>-416.79</v>
-      </c>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="62"/>
-    </row>
-    <row r="19" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="55">
+        <v>0</v>
+      </c>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58">
+        <v>-175.73</v>
+      </c>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="60"/>
+    </row>
+    <row r="19" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="57">
-        <v>0</v>
-      </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="57">
-        <v>0</v>
-      </c>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="59"/>
-    </row>
-    <row r="20" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="55">
+        <v>0</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="55">
+        <v>0</v>
+      </c>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="57"/>
+    </row>
+    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="57">
-        <v>0</v>
-      </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="57">
-        <v>0</v>
-      </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="59"/>
-    </row>
-    <row r="21" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="55">
+        <v>0</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58">
+        <v>-2.97</v>
+      </c>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
+    </row>
+    <row r="21" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="57">
-        <v>0</v>
-      </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="60">
-        <v>-416.79</v>
-      </c>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="62"/>
-    </row>
-    <row r="22" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="55">
+        <v>0</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58">
+        <v>-178.7</v>
+      </c>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
+    </row>
+    <row r="22" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="57">
-        <v>0</v>
-      </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="60">
-        <v>-50.02</v>
-      </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="62"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="55">
+        <v>0</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58">
+        <v>-21.05</v>
+      </c>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="60"/>
+    </row>
+    <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="57">
-        <v>0</v>
-      </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="57">
-        <v>8.34</v>
-      </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="59"/>
-    </row>
-    <row r="24" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="55">
+        <v>0</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="55">
+        <v>3.52</v>
+      </c>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57"/>
+    </row>
+    <row r="24" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="57">
-        <v>0</v>
-      </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="57">
-        <v>0</v>
-      </c>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="59"/>
-    </row>
-    <row r="25" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="55">
+        <v>0</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58">
+        <v>-196.23</v>
+      </c>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
+    </row>
+    <row r="25" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="63">
-        <v>0</v>
-      </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="65"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="55">
+        <v>0</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="55">
+        <v>0</v>
+      </c>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
     </row>
     <row r="26" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="66" t="s">
+    <row r="27" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="60">
-        <v>-416.8</v>
-      </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="62"/>
-    </row>
-    <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="55">
+        <v>0</v>
+      </c>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="57"/>
+    </row>
+    <row r="28" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="57">
-        <v>1.52</v>
-      </c>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="59"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="58">
+        <v>-421.93</v>
+      </c>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="49" t="s">
         <v>33</v>
       </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="58">
+        <v>-421.93</v>
+      </c>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="60"/>
     </row>
     <row r="30" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="49" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="55">
+        <v>243.18</v>
+      </c>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="57"/>
+    </row>
+    <row r="31" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="55">
+        <v>0</v>
+      </c>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="57"/>
     </row>
     <row r="32" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="49" t="s">
         <v>36</v>
       </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="55">
+        <v>0</v>
+      </c>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="57"/>
     </row>
     <row r="33" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="61" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="66"/>
+    </row>
+    <row r="34" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+    <row r="35" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="36" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="10" t="s">
+    </row>
+    <row r="37" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="10" t="s">
+    </row>
+    <row r="38" spans="1:23" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="48"/>
+    </row>
+    <row r="39" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="69" t="s">
+    </row>
+    <row r="40" spans="1:23" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="10" t="s">
+    </row>
+    <row r="41" spans="1:23" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="71" t="s">
+    </row>
+    <row r="42" spans="1:23" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="72"/>
-      <c r="J37" s="71" t="s">
+      <c r="B42" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K37" s="72"/>
-      <c r="L37" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="E42" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="O37" s="69" t="s">
+      <c r="F42" s="68"/>
+      <c r="G42" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="71" t="s">
+      <c r="H42" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="R37" s="72"/>
-      <c r="S37" s="71" t="s">
+      <c r="I42" s="70"/>
+      <c r="J42" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="T37" s="72"/>
-      <c r="U37" s="10" t="s">
+      <c r="K42" s="70"/>
+      <c r="L42" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V37" s="10" t="s">
+      <c r="M42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="W37" s="9" t="s">
+      <c r="N42" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="O42" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="P42" s="68"/>
+      <c r="Q42" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="R42" s="70"/>
+      <c r="S42" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="T42" s="70"/>
+      <c r="U42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="V42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="11" t="s">
+      <c r="W42" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="72"/>
+      <c r="G43" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="72"/>
+      <c r="J43" s="73">
+        <v>0</v>
+      </c>
+      <c r="K43" s="74"/>
+      <c r="L43" s="13">
+        <v>0</v>
+      </c>
+      <c r="M43" s="13">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13">
+        <v>0</v>
+      </c>
+      <c r="O43" s="73">
+        <v>0</v>
+      </c>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R43" s="76"/>
+      <c r="S43" s="73">
+        <v>0</v>
+      </c>
+      <c r="T43" s="74"/>
+      <c r="U43" s="13">
+        <v>0</v>
+      </c>
+      <c r="V43" s="13">
+        <v>0</v>
+      </c>
+      <c r="W43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="72"/>
+      <c r="G45" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="72"/>
+      <c r="J45" s="73">
+        <v>0</v>
+      </c>
+      <c r="K45" s="74"/>
+      <c r="L45" s="13">
+        <v>0</v>
+      </c>
+      <c r="M45" s="13">
+        <v>0</v>
+      </c>
+      <c r="N45" s="13">
+        <v>0</v>
+      </c>
+      <c r="O45" s="73">
+        <v>0</v>
+      </c>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="73">
+        <v>0</v>
+      </c>
+      <c r="R45" s="74"/>
+      <c r="S45" s="73">
+        <v>0</v>
+      </c>
+      <c r="T45" s="74"/>
+      <c r="U45" s="14">
+        <v>-0.46</v>
+      </c>
+      <c r="V45" s="13">
+        <v>0</v>
+      </c>
+      <c r="W45" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+    </row>
+    <row r="47" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="72"/>
+      <c r="G47" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="72"/>
+      <c r="J47" s="73">
+        <v>0</v>
+      </c>
+      <c r="K47" s="74"/>
+      <c r="L47" s="13">
+        <v>0</v>
+      </c>
+      <c r="M47" s="13">
+        <v>0</v>
+      </c>
+      <c r="N47" s="13">
+        <v>0</v>
+      </c>
+      <c r="O47" s="73">
+        <v>0</v>
+      </c>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R47" s="76"/>
+      <c r="S47" s="73">
+        <v>0</v>
+      </c>
+      <c r="T47" s="74"/>
+      <c r="U47" s="13">
+        <v>0</v>
+      </c>
+      <c r="V47" s="13">
+        <v>0</v>
+      </c>
+      <c r="W47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+    </row>
+    <row r="49" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="72"/>
+      <c r="G49" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" s="72"/>
+      <c r="J49" s="73">
+        <v>0</v>
+      </c>
+      <c r="K49" s="74"/>
+      <c r="L49" s="13">
+        <v>0</v>
+      </c>
+      <c r="M49" s="13">
+        <v>0</v>
+      </c>
+      <c r="N49" s="13">
+        <v>0</v>
+      </c>
+      <c r="O49" s="73">
+        <v>0</v>
+      </c>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="75">
+        <v>-0.02</v>
+      </c>
+      <c r="R49" s="76"/>
+      <c r="S49" s="73">
+        <v>0</v>
+      </c>
+      <c r="T49" s="74"/>
+      <c r="U49" s="13">
+        <v>0</v>
+      </c>
+      <c r="V49" s="13">
+        <v>0</v>
+      </c>
+      <c r="W49" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="72"/>
+      <c r="G51" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" s="72"/>
+      <c r="J51" s="73">
+        <v>0</v>
+      </c>
+      <c r="K51" s="74"/>
+      <c r="L51" s="13">
+        <v>0</v>
+      </c>
+      <c r="M51" s="13">
+        <v>0</v>
+      </c>
+      <c r="N51" s="13">
+        <v>0</v>
+      </c>
+      <c r="O51" s="73">
+        <v>0</v>
+      </c>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="75">
+        <v>-0.9</v>
+      </c>
+      <c r="R51" s="76"/>
+      <c r="S51" s="73">
+        <v>0</v>
+      </c>
+      <c r="T51" s="74"/>
+      <c r="U51" s="13">
+        <v>0</v>
+      </c>
+      <c r="V51" s="14">
+        <v>-0.11</v>
+      </c>
+      <c r="W51" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="41"/>
+    </row>
+    <row r="53" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="72"/>
+      <c r="G53" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53" s="72"/>
+      <c r="J53" s="73">
+        <v>0</v>
+      </c>
+      <c r="K53" s="74"/>
+      <c r="L53" s="13">
+        <v>0</v>
+      </c>
+      <c r="M53" s="13">
+        <v>0</v>
+      </c>
+      <c r="N53" s="13">
+        <v>0</v>
+      </c>
+      <c r="O53" s="73">
+        <v>0</v>
+      </c>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="75">
+        <v>-33.31</v>
+      </c>
+      <c r="R53" s="76"/>
+      <c r="S53" s="73">
+        <v>0</v>
+      </c>
+      <c r="T53" s="74"/>
+      <c r="U53" s="13">
+        <v>0</v>
+      </c>
+      <c r="V53" s="14">
+        <v>-4</v>
+      </c>
+      <c r="W53" s="13">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+    </row>
+    <row r="55" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="72"/>
+      <c r="G55" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55" s="72"/>
+      <c r="J55" s="73">
+        <v>0</v>
+      </c>
+      <c r="K55" s="74"/>
+      <c r="L55" s="13">
+        <v>0</v>
+      </c>
+      <c r="M55" s="13">
+        <v>0</v>
+      </c>
+      <c r="N55" s="13">
+        <v>0</v>
+      </c>
+      <c r="O55" s="73">
+        <v>0</v>
+      </c>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="75">
+        <v>-0.03</v>
+      </c>
+      <c r="R55" s="76"/>
+      <c r="S55" s="73">
+        <v>0</v>
+      </c>
+      <c r="T55" s="74"/>
+      <c r="U55" s="13">
+        <v>0</v>
+      </c>
+      <c r="V55" s="13">
+        <v>0</v>
+      </c>
+      <c r="W55" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="72"/>
+      <c r="G57" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="72"/>
+      <c r="J57" s="73">
+        <v>0</v>
+      </c>
+      <c r="K57" s="74"/>
+      <c r="L57" s="13">
+        <v>0</v>
+      </c>
+      <c r="M57" s="13">
+        <v>0</v>
+      </c>
+      <c r="N57" s="13">
+        <v>0</v>
+      </c>
+      <c r="O57" s="73">
+        <v>0</v>
+      </c>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="73">
+        <v>0</v>
+      </c>
+      <c r="R57" s="74"/>
+      <c r="S57" s="73">
+        <v>0</v>
+      </c>
+      <c r="T57" s="74"/>
+      <c r="U57" s="14">
+        <v>-0.03</v>
+      </c>
+      <c r="V57" s="13">
+        <v>0</v>
+      </c>
+      <c r="W57" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="41"/>
+      <c r="W58" s="41"/>
+    </row>
+    <row r="59" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="72"/>
+      <c r="G59" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="72"/>
+      <c r="J59" s="73">
+        <v>0</v>
+      </c>
+      <c r="K59" s="74"/>
+      <c r="L59" s="13">
+        <v>0</v>
+      </c>
+      <c r="M59" s="13">
+        <v>0</v>
+      </c>
+      <c r="N59" s="13">
+        <v>0</v>
+      </c>
+      <c r="O59" s="73">
+        <v>0</v>
+      </c>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="75">
+        <v>-0.06</v>
+      </c>
+      <c r="R59" s="76"/>
+      <c r="S59" s="73">
+        <v>0</v>
+      </c>
+      <c r="T59" s="74"/>
+      <c r="U59" s="13">
+        <v>0</v>
+      </c>
+      <c r="V59" s="14">
+        <v>-0.01</v>
+      </c>
+      <c r="W59" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="68"/>
+      <c r="G60" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I60" s="70"/>
+      <c r="J60" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="K60" s="70"/>
+      <c r="L60" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O60" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="R60" s="70"/>
+      <c r="S60" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="T60" s="70"/>
+      <c r="U60" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="73" t="s">
+      <c r="W60" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="72"/>
+      <c r="G61" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I61" s="72"/>
+      <c r="J61" s="73">
+        <v>0</v>
+      </c>
+      <c r="K61" s="74"/>
+      <c r="L61" s="13">
+        <v>0</v>
+      </c>
+      <c r="M61" s="13">
+        <v>0</v>
+      </c>
+      <c r="N61" s="13">
+        <v>0</v>
+      </c>
+      <c r="O61" s="73">
+        <v>0</v>
+      </c>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R61" s="76"/>
+      <c r="S61" s="73">
+        <v>0</v>
+      </c>
+      <c r="T61" s="74"/>
+      <c r="U61" s="13">
+        <v>0</v>
+      </c>
+      <c r="V61" s="13">
+        <v>0</v>
+      </c>
+      <c r="W61" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="72"/>
+      <c r="G63" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I63" s="72"/>
+      <c r="J63" s="73">
+        <v>0</v>
+      </c>
+      <c r="K63" s="74"/>
+      <c r="L63" s="13">
+        <v>0</v>
+      </c>
+      <c r="M63" s="13">
+        <v>0</v>
+      </c>
+      <c r="N63" s="13">
+        <v>0</v>
+      </c>
+      <c r="O63" s="73">
+        <v>0</v>
+      </c>
+      <c r="P63" s="74"/>
+      <c r="Q63" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R63" s="76"/>
+      <c r="S63" s="73">
+        <v>0</v>
+      </c>
+      <c r="T63" s="74"/>
+      <c r="U63" s="13">
+        <v>0</v>
+      </c>
+      <c r="V63" s="13">
+        <v>0</v>
+      </c>
+      <c r="W63" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="41"/>
+      <c r="U64" s="41"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="41"/>
+    </row>
+    <row r="65" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="72"/>
+      <c r="G65" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I65" s="72"/>
+      <c r="J65" s="73">
+        <v>0</v>
+      </c>
+      <c r="K65" s="74"/>
+      <c r="L65" s="13">
+        <v>0</v>
+      </c>
+      <c r="M65" s="13">
+        <v>0</v>
+      </c>
+      <c r="N65" s="13">
+        <v>0</v>
+      </c>
+      <c r="O65" s="73">
+        <v>0</v>
+      </c>
+      <c r="P65" s="74"/>
+      <c r="Q65" s="75">
+        <v>-0.02</v>
+      </c>
+      <c r="R65" s="76"/>
+      <c r="S65" s="73">
+        <v>0</v>
+      </c>
+      <c r="T65" s="74"/>
+      <c r="U65" s="13">
+        <v>0</v>
+      </c>
+      <c r="V65" s="13">
+        <v>0</v>
+      </c>
+      <c r="W65" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="41"/>
+    </row>
+    <row r="67" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="72"/>
+      <c r="G67" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="72"/>
+      <c r="J67" s="73">
+        <v>0</v>
+      </c>
+      <c r="K67" s="74"/>
+      <c r="L67" s="13">
+        <v>0</v>
+      </c>
+      <c r="M67" s="13">
+        <v>0</v>
+      </c>
+      <c r="N67" s="13">
+        <v>0</v>
+      </c>
+      <c r="O67" s="73">
+        <v>0</v>
+      </c>
+      <c r="P67" s="74"/>
+      <c r="Q67" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R67" s="76"/>
+      <c r="S67" s="73">
+        <v>0</v>
+      </c>
+      <c r="T67" s="74"/>
+      <c r="U67" s="13">
+        <v>0</v>
+      </c>
+      <c r="V67" s="13">
+        <v>0</v>
+      </c>
+      <c r="W67" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+    </row>
+    <row r="69" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="72"/>
+      <c r="G69" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69" s="72"/>
+      <c r="J69" s="73">
+        <v>0</v>
+      </c>
+      <c r="K69" s="74"/>
+      <c r="L69" s="13">
+        <v>0</v>
+      </c>
+      <c r="M69" s="13">
+        <v>0</v>
+      </c>
+      <c r="N69" s="13">
+        <v>0</v>
+      </c>
+      <c r="O69" s="73">
+        <v>0</v>
+      </c>
+      <c r="P69" s="74"/>
+      <c r="Q69" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R69" s="76"/>
+      <c r="S69" s="73">
+        <v>0</v>
+      </c>
+      <c r="T69" s="74"/>
+      <c r="U69" s="13">
+        <v>0</v>
+      </c>
+      <c r="V69" s="13">
+        <v>0</v>
+      </c>
+      <c r="W69" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="41"/>
+      <c r="V70" s="41"/>
+      <c r="W70" s="41"/>
+    </row>
+    <row r="71" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="72"/>
+      <c r="G71" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I71" s="72"/>
+      <c r="J71" s="73">
+        <v>0</v>
+      </c>
+      <c r="K71" s="74"/>
+      <c r="L71" s="13">
+        <v>0</v>
+      </c>
+      <c r="M71" s="13">
+        <v>0</v>
+      </c>
+      <c r="N71" s="13">
+        <v>0</v>
+      </c>
+      <c r="O71" s="73">
+        <v>0</v>
+      </c>
+      <c r="P71" s="74"/>
+      <c r="Q71" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R71" s="76"/>
+      <c r="S71" s="73">
+        <v>0</v>
+      </c>
+      <c r="T71" s="74"/>
+      <c r="U71" s="13">
+        <v>0</v>
+      </c>
+      <c r="V71" s="13">
+        <v>0</v>
+      </c>
+      <c r="W71" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="41"/>
+      <c r="W72" s="41"/>
+    </row>
+    <row r="73" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="72"/>
+      <c r="G73" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I73" s="72"/>
+      <c r="J73" s="73">
+        <v>0</v>
+      </c>
+      <c r="K73" s="74"/>
+      <c r="L73" s="13">
+        <v>0</v>
+      </c>
+      <c r="M73" s="13">
+        <v>0</v>
+      </c>
+      <c r="N73" s="13">
+        <v>0</v>
+      </c>
+      <c r="O73" s="73">
+        <v>0</v>
+      </c>
+      <c r="P73" s="74"/>
+      <c r="Q73" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R73" s="76"/>
+      <c r="S73" s="73">
+        <v>0</v>
+      </c>
+      <c r="T73" s="74"/>
+      <c r="U73" s="13">
+        <v>0</v>
+      </c>
+      <c r="V73" s="13">
+        <v>0</v>
+      </c>
+      <c r="W73" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F75" s="72"/>
+      <c r="G75" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75" s="72"/>
+      <c r="J75" s="73">
+        <v>0</v>
+      </c>
+      <c r="K75" s="74"/>
+      <c r="L75" s="13">
+        <v>0</v>
+      </c>
+      <c r="M75" s="13">
+        <v>0</v>
+      </c>
+      <c r="N75" s="13">
+        <v>0</v>
+      </c>
+      <c r="O75" s="73">
+        <v>0</v>
+      </c>
+      <c r="P75" s="74"/>
+      <c r="Q75" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R75" s="76"/>
+      <c r="S75" s="73">
+        <v>0</v>
+      </c>
+      <c r="T75" s="74"/>
+      <c r="U75" s="13">
+        <v>0</v>
+      </c>
+      <c r="V75" s="13">
+        <v>0</v>
+      </c>
+      <c r="W75" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="41"/>
+      <c r="U76" s="41"/>
+      <c r="V76" s="41"/>
+      <c r="W76" s="41"/>
+    </row>
+    <row r="77" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="72"/>
+      <c r="G77" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H77" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I77" s="72"/>
+      <c r="J77" s="73">
+        <v>0</v>
+      </c>
+      <c r="K77" s="74"/>
+      <c r="L77" s="13">
+        <v>0</v>
+      </c>
+      <c r="M77" s="13">
+        <v>0</v>
+      </c>
+      <c r="N77" s="13">
+        <v>0</v>
+      </c>
+      <c r="O77" s="73">
+        <v>0</v>
+      </c>
+      <c r="P77" s="74"/>
+      <c r="Q77" s="75">
+        <v>-0.47</v>
+      </c>
+      <c r="R77" s="76"/>
+      <c r="S77" s="73">
+        <v>0</v>
+      </c>
+      <c r="T77" s="74"/>
+      <c r="U77" s="13">
+        <v>0</v>
+      </c>
+      <c r="V77" s="14">
+        <v>-0.06</v>
+      </c>
+      <c r="W77" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="41"/>
+      <c r="U78" s="41"/>
+      <c r="V78" s="41"/>
+      <c r="W78" s="41"/>
+    </row>
+    <row r="79" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" s="72"/>
+      <c r="G79" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I79" s="72"/>
+      <c r="J79" s="73">
+        <v>0</v>
+      </c>
+      <c r="K79" s="74"/>
+      <c r="L79" s="13">
+        <v>0</v>
+      </c>
+      <c r="M79" s="13">
+        <v>0</v>
+      </c>
+      <c r="N79" s="13">
+        <v>0</v>
+      </c>
+      <c r="O79" s="73">
+        <v>0</v>
+      </c>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="75">
+        <v>-134.29</v>
+      </c>
+      <c r="R79" s="76"/>
+      <c r="S79" s="73">
+        <v>0</v>
+      </c>
+      <c r="T79" s="74"/>
+      <c r="U79" s="13">
+        <v>0</v>
+      </c>
+      <c r="V79" s="14">
+        <v>-16.11</v>
+      </c>
+      <c r="W79" s="13">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="41"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="41"/>
+      <c r="S80" s="41"/>
+      <c r="T80" s="41"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+    </row>
+    <row r="81" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="72"/>
+      <c r="G81" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I81" s="72"/>
+      <c r="J81" s="73">
+        <v>0</v>
+      </c>
+      <c r="K81" s="74"/>
+      <c r="L81" s="13">
+        <v>0</v>
+      </c>
+      <c r="M81" s="13">
+        <v>0</v>
+      </c>
+      <c r="N81" s="13">
+        <v>0</v>
+      </c>
+      <c r="O81" s="73">
+        <v>0</v>
+      </c>
+      <c r="P81" s="74"/>
+      <c r="Q81" s="75">
+        <v>-6.36</v>
+      </c>
+      <c r="R81" s="76"/>
+      <c r="S81" s="73">
+        <v>0</v>
+      </c>
+      <c r="T81" s="74"/>
+      <c r="U81" s="13">
+        <v>0</v>
+      </c>
+      <c r="V81" s="14">
+        <v>-0.76</v>
+      </c>
+      <c r="W81" s="13">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="41"/>
+    </row>
+    <row r="83" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="72"/>
+      <c r="G83" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I83" s="72"/>
+      <c r="J83" s="73">
+        <v>0</v>
+      </c>
+      <c r="K83" s="74"/>
+      <c r="L83" s="13">
+        <v>0</v>
+      </c>
+      <c r="M83" s="13">
+        <v>0</v>
+      </c>
+      <c r="N83" s="13">
+        <v>0</v>
+      </c>
+      <c r="O83" s="73">
+        <v>0</v>
+      </c>
+      <c r="P83" s="74"/>
+      <c r="Q83" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R83" s="76"/>
+      <c r="S83" s="73">
+        <v>0</v>
+      </c>
+      <c r="T83" s="74"/>
+      <c r="U83" s="13">
+        <v>0</v>
+      </c>
+      <c r="V83" s="13">
+        <v>0</v>
+      </c>
+      <c r="W83" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="68"/>
+      <c r="G84" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H84" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I84" s="70"/>
+      <c r="J84" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="K84" s="70"/>
+      <c r="L84" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O84" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="R84" s="70"/>
+      <c r="S84" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="T84" s="70"/>
+      <c r="U84" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V84" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="74"/>
-      <c r="J38" s="75">
-        <v>0</v>
-      </c>
-      <c r="K38" s="76"/>
-      <c r="L38" s="12">
-        <v>0</v>
-      </c>
-      <c r="M38" s="12">
-        <v>0</v>
-      </c>
-      <c r="N38" s="12">
-        <v>0</v>
-      </c>
-      <c r="O38" s="75">
-        <v>0</v>
-      </c>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="77">
-        <v>-1.36</v>
-      </c>
-      <c r="R38" s="78"/>
-      <c r="S38" s="75">
-        <v>0</v>
-      </c>
-      <c r="T38" s="76"/>
-      <c r="U38" s="12">
-        <v>0</v>
-      </c>
-      <c r="V38" s="13">
-        <v>-0.16</v>
-      </c>
-      <c r="W38" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-    </row>
-    <row r="40" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
+      <c r="W84" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="11" t="s">
+    </row>
+    <row r="85" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" s="72"/>
+      <c r="G85" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I85" s="72"/>
+      <c r="J85" s="73">
+        <v>0</v>
+      </c>
+      <c r="K85" s="74"/>
+      <c r="L85" s="13">
+        <v>0</v>
+      </c>
+      <c r="M85" s="13">
+        <v>0</v>
+      </c>
+      <c r="N85" s="13">
+        <v>0</v>
+      </c>
+      <c r="O85" s="73">
+        <v>0</v>
+      </c>
+      <c r="P85" s="74"/>
+      <c r="Q85" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R85" s="76"/>
+      <c r="S85" s="73">
+        <v>0</v>
+      </c>
+      <c r="T85" s="74"/>
+      <c r="U85" s="13">
+        <v>0</v>
+      </c>
+      <c r="V85" s="13">
+        <v>0</v>
+      </c>
+      <c r="W85" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
+      <c r="T86" s="41"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+    </row>
+    <row r="87" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" s="72"/>
+      <c r="G87" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H87" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I87" s="72"/>
+      <c r="J87" s="73">
+        <v>0</v>
+      </c>
+      <c r="K87" s="74"/>
+      <c r="L87" s="13">
+        <v>0</v>
+      </c>
+      <c r="M87" s="13">
+        <v>0</v>
+      </c>
+      <c r="N87" s="13">
+        <v>0</v>
+      </c>
+      <c r="O87" s="73">
+        <v>0</v>
+      </c>
+      <c r="P87" s="74"/>
+      <c r="Q87" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R87" s="76"/>
+      <c r="S87" s="73">
+        <v>0</v>
+      </c>
+      <c r="T87" s="74"/>
+      <c r="U87" s="13">
+        <v>0</v>
+      </c>
+      <c r="V87" s="13">
+        <v>0</v>
+      </c>
+      <c r="W87" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="41"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="41"/>
+      <c r="S88" s="41"/>
+      <c r="T88" s="41"/>
+      <c r="U88" s="41"/>
+      <c r="V88" s="41"/>
+      <c r="W88" s="41"/>
+    </row>
+    <row r="89" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E89" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="72"/>
+      <c r="G89" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H89" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I89" s="72"/>
+      <c r="J89" s="73">
+        <v>0</v>
+      </c>
+      <c r="K89" s="74"/>
+      <c r="L89" s="13">
+        <v>0</v>
+      </c>
+      <c r="M89" s="13">
+        <v>0</v>
+      </c>
+      <c r="N89" s="13">
+        <v>0</v>
+      </c>
+      <c r="O89" s="73">
+        <v>0</v>
+      </c>
+      <c r="P89" s="74"/>
+      <c r="Q89" s="73">
+        <v>0</v>
+      </c>
+      <c r="R89" s="74"/>
+      <c r="S89" s="73">
+        <v>0</v>
+      </c>
+      <c r="T89" s="74"/>
+      <c r="U89" s="14">
+        <v>-0.02</v>
+      </c>
+      <c r="V89" s="13">
+        <v>0</v>
+      </c>
+      <c r="W89" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="41"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="41"/>
+      <c r="N90" s="41"/>
+      <c r="O90" s="41"/>
+      <c r="P90" s="41"/>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="41"/>
+      <c r="S90" s="41"/>
+      <c r="T90" s="41"/>
+      <c r="U90" s="41"/>
+      <c r="V90" s="41"/>
+      <c r="W90" s="41"/>
+    </row>
+    <row r="91" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E91" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F91" s="72"/>
+      <c r="G91" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H91" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I91" s="72"/>
+      <c r="J91" s="73">
+        <v>0</v>
+      </c>
+      <c r="K91" s="74"/>
+      <c r="L91" s="13">
+        <v>0</v>
+      </c>
+      <c r="M91" s="13">
+        <v>0</v>
+      </c>
+      <c r="N91" s="13">
+        <v>0</v>
+      </c>
+      <c r="O91" s="73">
+        <v>0</v>
+      </c>
+      <c r="P91" s="74"/>
+      <c r="Q91" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R91" s="76"/>
+      <c r="S91" s="73">
+        <v>0</v>
+      </c>
+      <c r="T91" s="74"/>
+      <c r="U91" s="13">
+        <v>0</v>
+      </c>
+      <c r="V91" s="13">
+        <v>0</v>
+      </c>
+      <c r="W91" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="41"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="41"/>
+      <c r="S92" s="41"/>
+      <c r="T92" s="41"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+    </row>
+    <row r="93" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F93" s="72"/>
+      <c r="G93" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I93" s="72"/>
+      <c r="J93" s="73">
+        <v>0</v>
+      </c>
+      <c r="K93" s="74"/>
+      <c r="L93" s="13">
+        <v>0</v>
+      </c>
+      <c r="M93" s="13">
+        <v>0</v>
+      </c>
+      <c r="N93" s="13">
+        <v>0</v>
+      </c>
+      <c r="O93" s="73">
+        <v>0</v>
+      </c>
+      <c r="P93" s="74"/>
+      <c r="Q93" s="75">
+        <v>-0.03</v>
+      </c>
+      <c r="R93" s="76"/>
+      <c r="S93" s="73">
+        <v>0</v>
+      </c>
+      <c r="T93" s="74"/>
+      <c r="U93" s="13">
+        <v>0</v>
+      </c>
+      <c r="V93" s="13">
+        <v>0</v>
+      </c>
+      <c r="W93" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="41"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="41"/>
+      <c r="N94" s="41"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="41"/>
+      <c r="Q94" s="41"/>
+      <c r="R94" s="41"/>
+      <c r="S94" s="41"/>
+      <c r="T94" s="41"/>
+      <c r="U94" s="41"/>
+      <c r="V94" s="41"/>
+      <c r="W94" s="41"/>
+    </row>
+    <row r="95" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E95" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F95" s="72"/>
+      <c r="G95" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I95" s="72"/>
+      <c r="J95" s="73">
+        <v>0</v>
+      </c>
+      <c r="K95" s="74"/>
+      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
+        <v>0</v>
+      </c>
+      <c r="N95" s="13">
+        <v>0</v>
+      </c>
+      <c r="O95" s="73">
+        <v>0</v>
+      </c>
+      <c r="P95" s="74"/>
+      <c r="Q95" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R95" s="76"/>
+      <c r="S95" s="73">
+        <v>0</v>
+      </c>
+      <c r="T95" s="74"/>
+      <c r="U95" s="13">
+        <v>0</v>
+      </c>
+      <c r="V95" s="13">
+        <v>0</v>
+      </c>
+      <c r="W95" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="41"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
+      <c r="Q96" s="41"/>
+      <c r="R96" s="41"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="41"/>
+      <c r="W96" s="41"/>
+    </row>
+    <row r="97" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E97" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F97" s="72"/>
+      <c r="G97" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H97" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I97" s="72"/>
+      <c r="J97" s="73">
+        <v>0</v>
+      </c>
+      <c r="K97" s="74"/>
+      <c r="L97" s="13">
+        <v>0</v>
+      </c>
+      <c r="M97" s="13">
+        <v>0</v>
+      </c>
+      <c r="N97" s="13">
+        <v>0</v>
+      </c>
+      <c r="O97" s="73">
+        <v>0</v>
+      </c>
+      <c r="P97" s="74"/>
+      <c r="Q97" s="75">
+        <v>-0.04</v>
+      </c>
+      <c r="R97" s="76"/>
+      <c r="S97" s="73">
+        <v>0</v>
+      </c>
+      <c r="T97" s="74"/>
+      <c r="U97" s="13">
+        <v>0</v>
+      </c>
+      <c r="V97" s="13">
+        <v>0</v>
+      </c>
+      <c r="W97" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="41"/>
+      <c r="P98" s="41"/>
+      <c r="Q98" s="41"/>
+      <c r="R98" s="41"/>
+      <c r="S98" s="41"/>
+      <c r="T98" s="41"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+    </row>
+    <row r="99" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E99" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F99" s="72"/>
+      <c r="G99" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H99" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I99" s="72"/>
+      <c r="J99" s="73">
+        <v>0</v>
+      </c>
+      <c r="K99" s="74"/>
+      <c r="L99" s="13">
+        <v>0</v>
+      </c>
+      <c r="M99" s="13">
+        <v>0</v>
+      </c>
+      <c r="N99" s="13">
+        <v>0</v>
+      </c>
+      <c r="O99" s="73">
+        <v>0</v>
+      </c>
+      <c r="P99" s="74"/>
+      <c r="Q99" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R99" s="76"/>
+      <c r="S99" s="73">
+        <v>0</v>
+      </c>
+      <c r="T99" s="74"/>
+      <c r="U99" s="13">
+        <v>0</v>
+      </c>
+      <c r="V99" s="13">
+        <v>0</v>
+      </c>
+      <c r="W99" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="41"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
+      <c r="M100" s="41"/>
+      <c r="N100" s="41"/>
+      <c r="O100" s="41"/>
+      <c r="P100" s="41"/>
+      <c r="Q100" s="41"/>
+      <c r="R100" s="41"/>
+      <c r="S100" s="41"/>
+      <c r="T100" s="41"/>
+      <c r="U100" s="41"/>
+      <c r="V100" s="41"/>
+      <c r="W100" s="41"/>
+    </row>
+    <row r="101" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E101" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" s="72"/>
+      <c r="G101" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H101" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="I101" s="72"/>
+      <c r="J101" s="73">
+        <v>0</v>
+      </c>
+      <c r="K101" s="74"/>
+      <c r="L101" s="13">
+        <v>0</v>
+      </c>
+      <c r="M101" s="13">
+        <v>0</v>
+      </c>
+      <c r="N101" s="13">
+        <v>0</v>
+      </c>
+      <c r="O101" s="73">
+        <v>0</v>
+      </c>
+      <c r="P101" s="74"/>
+      <c r="Q101" s="73">
+        <v>0</v>
+      </c>
+      <c r="R101" s="74"/>
+      <c r="S101" s="73">
+        <v>0</v>
+      </c>
+      <c r="T101" s="74"/>
+      <c r="U101" s="14">
+        <v>-2.46</v>
+      </c>
+      <c r="V101" s="13">
+        <v>0</v>
+      </c>
+      <c r="W101" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="41"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="41"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="41"/>
+      <c r="Q102" s="41"/>
+      <c r="R102" s="41"/>
+      <c r="S102" s="41"/>
+      <c r="T102" s="41"/>
+      <c r="U102" s="41"/>
+      <c r="V102" s="41"/>
+      <c r="W102" s="41"/>
+    </row>
+    <row r="103" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E103" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F103" s="72"/>
+      <c r="G103" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H103" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I103" s="72"/>
+      <c r="J103" s="73">
+        <v>0</v>
+      </c>
+      <c r="K103" s="74"/>
+      <c r="L103" s="13">
+        <v>0</v>
+      </c>
+      <c r="M103" s="13">
+        <v>0</v>
+      </c>
+      <c r="N103" s="13">
+        <v>0</v>
+      </c>
+      <c r="O103" s="73">
+        <v>0</v>
+      </c>
+      <c r="P103" s="74"/>
+      <c r="Q103" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R103" s="76"/>
+      <c r="S103" s="73">
+        <v>0</v>
+      </c>
+      <c r="T103" s="74"/>
+      <c r="U103" s="13">
+        <v>0</v>
+      </c>
+      <c r="V103" s="13">
+        <v>0</v>
+      </c>
+      <c r="W103" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="41"/>
+      <c r="Q104" s="41"/>
+      <c r="R104" s="41"/>
+      <c r="S104" s="41"/>
+      <c r="T104" s="41"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+    </row>
+    <row r="105" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F105" s="72"/>
+      <c r="G105" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H105" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="I105" s="72"/>
+      <c r="J105" s="73">
+        <v>0</v>
+      </c>
+      <c r="K105" s="74"/>
+      <c r="L105" s="13">
+        <v>0</v>
+      </c>
+      <c r="M105" s="13">
+        <v>0</v>
+      </c>
+      <c r="N105" s="13">
+        <v>0</v>
+      </c>
+      <c r="O105" s="73">
+        <v>0</v>
+      </c>
+      <c r="P105" s="74"/>
+      <c r="Q105" s="75">
+        <v>-0.02</v>
+      </c>
+      <c r="R105" s="76"/>
+      <c r="S105" s="73">
+        <v>0</v>
+      </c>
+      <c r="T105" s="74"/>
+      <c r="U105" s="13">
+        <v>0</v>
+      </c>
+      <c r="V105" s="13">
+        <v>0</v>
+      </c>
+      <c r="W105" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="41"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="41"/>
+      <c r="M106" s="41"/>
+      <c r="N106" s="41"/>
+      <c r="O106" s="41"/>
+      <c r="P106" s="41"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="41"/>
+      <c r="S106" s="41"/>
+      <c r="T106" s="41"/>
+      <c r="U106" s="41"/>
+      <c r="V106" s="41"/>
+      <c r="W106" s="41"/>
+    </row>
+    <row r="107" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E107" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107" s="72"/>
+      <c r="G107" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H107" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I107" s="72"/>
+      <c r="J107" s="73">
+        <v>0</v>
+      </c>
+      <c r="K107" s="74"/>
+      <c r="L107" s="13">
+        <v>0</v>
+      </c>
+      <c r="M107" s="13">
+        <v>0</v>
+      </c>
+      <c r="N107" s="13">
+        <v>0</v>
+      </c>
+      <c r="O107" s="73">
+        <v>0</v>
+      </c>
+      <c r="P107" s="74"/>
+      <c r="Q107" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R107" s="76"/>
+      <c r="S107" s="73">
+        <v>0</v>
+      </c>
+      <c r="T107" s="74"/>
+      <c r="U107" s="13">
+        <v>0</v>
+      </c>
+      <c r="V107" s="13">
+        <v>0</v>
+      </c>
+      <c r="W107" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E108" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="F108" s="68"/>
+      <c r="G108" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H108" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I108" s="70"/>
+      <c r="J108" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="K108" s="70"/>
+      <c r="L108" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O108" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="P108" s="68"/>
+      <c r="Q108" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="R108" s="70"/>
+      <c r="S108" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="T108" s="70"/>
+      <c r="U108" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V108" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W108" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="74"/>
-      <c r="J40" s="75">
-        <v>0</v>
-      </c>
-      <c r="K40" s="76"/>
-      <c r="L40" s="12">
-        <v>0</v>
-      </c>
-      <c r="M40" s="12">
-        <v>0</v>
-      </c>
-      <c r="N40" s="12">
-        <v>0</v>
-      </c>
-      <c r="O40" s="75">
-        <v>0</v>
-      </c>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="77">
-        <v>-3.19</v>
-      </c>
-      <c r="R40" s="78"/>
-      <c r="S40" s="75">
-        <v>0</v>
-      </c>
-      <c r="T40" s="76"/>
-      <c r="U40" s="12">
-        <v>0</v>
-      </c>
-      <c r="V40" s="13">
-        <v>-0.38</v>
-      </c>
-      <c r="W40" s="12">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-    </row>
-    <row r="42" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="74"/>
-      <c r="G42" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="74"/>
-      <c r="J42" s="75">
-        <v>0</v>
-      </c>
-      <c r="K42" s="76"/>
-      <c r="L42" s="12">
-        <v>0</v>
-      </c>
-      <c r="M42" s="12">
-        <v>0</v>
-      </c>
-      <c r="N42" s="12">
-        <v>0</v>
-      </c>
-      <c r="O42" s="75">
-        <v>0</v>
-      </c>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="77">
-        <v>-79.56</v>
-      </c>
-      <c r="R42" s="78"/>
-      <c r="S42" s="75">
-        <v>0</v>
-      </c>
-      <c r="T42" s="76"/>
-      <c r="U42" s="12">
-        <v>0</v>
-      </c>
-      <c r="V42" s="13">
-        <v>-9.5500000000000007</v>
-      </c>
-      <c r="W42" s="12">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-    </row>
-    <row r="44" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="11" t="s">
+    </row>
+    <row r="109" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="74"/>
-      <c r="G44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" s="74"/>
-      <c r="J44" s="75">
-        <v>0</v>
-      </c>
-      <c r="K44" s="76"/>
-      <c r="L44" s="12">
-        <v>0</v>
-      </c>
-      <c r="M44" s="12">
-        <v>0</v>
-      </c>
-      <c r="N44" s="12">
-        <v>0</v>
-      </c>
-      <c r="O44" s="75">
-        <v>0</v>
-      </c>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="77">
-        <v>-0.45</v>
-      </c>
-      <c r="R44" s="78"/>
-      <c r="S44" s="75">
-        <v>0</v>
-      </c>
-      <c r="T44" s="76"/>
-      <c r="U44" s="12">
-        <v>0</v>
-      </c>
-      <c r="V44" s="13">
-        <v>-0.05</v>
-      </c>
-      <c r="W44" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-    </row>
-    <row r="46" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
+      <c r="D109" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="74"/>
-      <c r="G46" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="I46" s="74"/>
-      <c r="J46" s="75">
-        <v>0</v>
-      </c>
-      <c r="K46" s="76"/>
-      <c r="L46" s="12">
-        <v>0</v>
-      </c>
-      <c r="M46" s="12">
-        <v>0</v>
-      </c>
-      <c r="N46" s="12">
-        <v>0</v>
-      </c>
-      <c r="O46" s="75">
-        <v>0</v>
-      </c>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="77">
-        <v>-311.81</v>
-      </c>
-      <c r="R46" s="78"/>
-      <c r="S46" s="75">
-        <v>0</v>
-      </c>
-      <c r="T46" s="76"/>
-      <c r="U46" s="12">
-        <v>0</v>
-      </c>
-      <c r="V46" s="13">
-        <v>-37.42</v>
-      </c>
-      <c r="W46" s="12">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-    </row>
-    <row r="48" spans="1:23" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="74"/>
-      <c r="G48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48" s="74"/>
-      <c r="J48" s="75">
-        <v>0</v>
-      </c>
-      <c r="K48" s="76"/>
-      <c r="L48" s="12">
-        <v>0</v>
-      </c>
-      <c r="M48" s="12">
-        <v>0</v>
-      </c>
-      <c r="N48" s="12">
-        <v>0</v>
-      </c>
-      <c r="O48" s="75">
-        <v>0</v>
-      </c>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="77">
-        <v>-12.46</v>
-      </c>
-      <c r="R48" s="78"/>
-      <c r="S48" s="75">
-        <v>0</v>
-      </c>
-      <c r="T48" s="76"/>
-      <c r="U48" s="12">
-        <v>0</v>
-      </c>
-      <c r="V48" s="13">
-        <v>-1.5</v>
-      </c>
-      <c r="W48" s="12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-    </row>
-    <row r="50" spans="1:23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="74"/>
-      <c r="G50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50" s="74"/>
-      <c r="J50" s="75">
-        <v>0</v>
-      </c>
-      <c r="K50" s="76"/>
-      <c r="L50" s="12">
-        <v>0</v>
-      </c>
-      <c r="M50" s="12">
-        <v>0</v>
-      </c>
-      <c r="N50" s="12">
-        <v>0</v>
-      </c>
-      <c r="O50" s="75">
-        <v>0</v>
-      </c>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="77">
-        <v>-7.96</v>
-      </c>
-      <c r="R50" s="78"/>
-      <c r="S50" s="75">
-        <v>0</v>
-      </c>
-      <c r="T50" s="76"/>
-      <c r="U50" s="12">
-        <v>0</v>
-      </c>
-      <c r="V50" s="13">
-        <v>-0.96</v>
-      </c>
-      <c r="W50" s="12">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>37</v>
+      <c r="E109" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F109" s="72"/>
+      <c r="G109" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H109" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I109" s="72"/>
+      <c r="J109" s="73">
+        <v>0</v>
+      </c>
+      <c r="K109" s="74"/>
+      <c r="L109" s="13">
+        <v>0</v>
+      </c>
+      <c r="M109" s="13">
+        <v>0</v>
+      </c>
+      <c r="N109" s="13">
+        <v>0</v>
+      </c>
+      <c r="O109" s="73">
+        <v>0</v>
+      </c>
+      <c r="P109" s="74"/>
+      <c r="Q109" s="75">
+        <v>-0.01</v>
+      </c>
+      <c r="R109" s="76"/>
+      <c r="S109" s="73">
+        <v>0</v>
+      </c>
+      <c r="T109" s="74"/>
+      <c r="U109" s="13">
+        <v>0</v>
+      </c>
+      <c r="V109" s="13">
+        <v>0</v>
+      </c>
+      <c r="W109" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:W49"/>
+  <mergeCells count="384">
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="O108:P108"/>
+    <mergeCell ref="Q108:R108"/>
+    <mergeCell ref="S108:T108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="O109:P109"/>
+    <mergeCell ref="Q109:R109"/>
+    <mergeCell ref="S109:T109"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:W106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="S107:T107"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:W102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="S104:T104"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:W100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="O101:P101"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:W96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="Q97:R97"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="Q98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:W94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="Q95:R95"/>
+    <mergeCell ref="S95:T95"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:W88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:W90"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:W82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:W78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:W76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:W72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:W70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:W64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:W66"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:W58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:W54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:W52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:W48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:T49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="O50:P50"/>
     <mergeCell ref="Q50:R50"/>
     <mergeCell ref="S50:T50"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:W47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:W43"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:W46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="S44:T44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:W41"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A38:Q38"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:Q27"/>
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="A31:Q31"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K31:Q31"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F23:L23"/>
     <mergeCell ref="M23:Q23"/>
@@ -3468,9 +6830,8 @@
     <mergeCell ref="F24:L24"/>
     <mergeCell ref="M24:Q24"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:Q25"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:Q25"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="F20:L20"/>
     <mergeCell ref="M20:Q20"/>
@@ -3506,316 +6867,1342 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>57</v>
+      <c r="H1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>-0.46</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="18">
-        <v>-1.36</v>
-      </c>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-      <c r="K2" s="13">
-        <v>-0.16</v>
-      </c>
-      <c r="L2" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="18">
-        <v>-3.19</v>
-      </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
-        <v>-0.38</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="18">
-        <v>-79.56</v>
-      </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>-9.5500000000000007</v>
-      </c>
-      <c r="L4" s="12">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="19">
+        <v>-0.02</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="18">
-        <v>-0.45</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>-0.05</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="B6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="19">
+        <v>-0.9</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>-0.11</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="19">
+        <v>-33.31</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>-4</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>-0.03</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="19">
+        <v>-0.06</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>-0.01</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="19">
+        <v>-0.02</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="19">
+        <v>-0.47</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <v>-0.06</v>
+      </c>
+      <c r="L19" s="13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="18">
-        <v>-311.81</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
-        <v>-37.42</v>
-      </c>
-      <c r="L6" s="12">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="E20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="19">
+        <v>-134.29</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <v>-16.11</v>
+      </c>
+      <c r="L20" s="13">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="18">
-        <v>-12.46</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <v>-1.5</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="18">
-        <v>-7.96</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
-        <v>-0.96</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0.16</v>
+      <c r="E21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="19">
+        <v>-6.36</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <v>-0.76</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <v>-0.02</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <v>0</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="19">
+        <v>-0.04</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
+        <v>-2.46</v>
+      </c>
+      <c r="K31" s="13">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I32" s="18">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="19">
+        <v>-0.02</v>
+      </c>
+      <c r="I33" s="18">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0</v>
+      </c>
+      <c r="K33" s="13">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I34" s="18">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="I35" s="18">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3828,55 +8215,56 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12.33203125" style="20" customWidth="1"/>
-    <col min="6" max="8" width="9.33203125" style="20"/>
+    <col min="6" max="6" width="10.1640625" style="20" customWidth="1"/>
+    <col min="7" max="8" width="9.33203125" style="20"/>
     <col min="9" max="12" width="12.1640625" style="20" customWidth="1"/>
     <col min="13" max="16384" width="9.33203125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="B2" s="21">
-        <v>45519</v>
+        <v>45641</v>
       </c>
       <c r="C2" s="21">
-        <v>45317</v>
+        <v>45438</v>
       </c>
       <c r="D2" s="21">
-        <v>45347</v>
+        <v>45468</v>
       </c>
       <c r="E2" s="21">
-        <v>45529</v>
+        <v>45651</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -3888,47 +8276,47 @@
       <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>75</v>
+      <c r="A3" s="39" t="s">
+        <v>127</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>80</v>
+        <v>131</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -3936,28 +8324,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="I4" s="30">
-        <v>-1.36</v>
+        <v>-0.01</v>
       </c>
       <c r="J4" s="31">
         <v>0</v>
@@ -3966,14 +8354,13 @@
         <v>0</v>
       </c>
       <c r="L4" s="30">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="M4" s="30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N4" s="32">
-        <f>SUM(I4:M4)</f>
-        <v>-1.49</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -3981,44 +8368,43 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="I5" s="30">
-        <v>-3.19</v>
+        <v>0</v>
       </c>
       <c r="J5" s="31">
         <v>0</v>
       </c>
       <c r="K5" s="31">
-        <v>0</v>
+        <v>-0.46</v>
       </c>
       <c r="L5" s="30">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="M5" s="30">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N5" s="32">
-        <f t="shared" ref="N5:N10" si="0">SUM(I5:M5)</f>
-        <v>-3.51</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4026,28 +8412,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="I6" s="30">
-        <v>-79.56</v>
+        <v>-0.01</v>
       </c>
       <c r="J6" s="31">
         <v>0</v>
@@ -4056,14 +8442,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="30">
-        <v>-9.5500000000000007</v>
+        <v>0</v>
       </c>
       <c r="M6" s="30">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="N6" s="32">
-        <f t="shared" si="0"/>
-        <v>-87.52</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4071,28 +8456,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="I7" s="30">
-        <v>-0.45</v>
+        <v>-0.02</v>
       </c>
       <c r="J7" s="31">
         <v>0</v>
@@ -4101,14 +8486,13 @@
         <v>0</v>
       </c>
       <c r="L7" s="30">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="M7" s="30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N7" s="32">
-        <f t="shared" si="0"/>
-        <v>-0.49</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4116,28 +8500,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="I8" s="30">
-        <v>-311.81</v>
+        <v>-0.9</v>
       </c>
       <c r="J8" s="31">
         <v>0</v>
@@ -4146,14 +8530,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="30">
-        <v>-37.42</v>
+        <v>-0.11</v>
       </c>
       <c r="M8" s="30">
-        <v>6.24</v>
+        <v>0.02</v>
       </c>
       <c r="N8" s="32">
-        <f t="shared" si="0"/>
-        <v>-342.99</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4161,28 +8544,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="I9" s="30">
-        <v>-12.46</v>
+        <v>-33.31</v>
       </c>
       <c r="J9" s="31">
         <v>0</v>
@@ -4191,14 +8574,13 @@
         <v>0</v>
       </c>
       <c r="L9" s="30">
-        <v>-1.5</v>
+        <v>-4</v>
       </c>
       <c r="M9" s="30">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="N9" s="32">
-        <f t="shared" si="0"/>
-        <v>-13.71</v>
+        <v>-36.64</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -4206,28 +8588,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="I10" s="30">
-        <v>-7.96</v>
+        <v>-0.03</v>
       </c>
       <c r="J10" s="31">
         <v>0</v>
@@ -4236,122 +8618,1267 @@
         <v>0</v>
       </c>
       <c r="L10" s="30">
-        <v>-0.96</v>
+        <v>0</v>
       </c>
       <c r="M10" s="30">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N10" s="32">
-        <f t="shared" si="0"/>
-        <v>-8.76</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="A11" s="33">
+        <v>8</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31">
+        <v>-0.03</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0</v>
+      </c>
+      <c r="M11" s="30">
+        <v>0</v>
+      </c>
+      <c r="N11" s="32">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="33">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>143</v>
+      </c>
       <c r="I12" s="30">
-        <f>SUM(I4:I11)</f>
-        <v>-416.78999999999996</v>
+        <v>-0.06</v>
       </c>
       <c r="J12" s="31">
-        <f t="shared" ref="J12" si="1">SUM(J4:J11)</f>
         <v>0</v>
       </c>
       <c r="K12" s="31">
-        <f>SUM(K4:K11)</f>
         <v>0</v>
       </c>
       <c r="L12" s="30">
-        <f>SUM(L4:L11)</f>
-        <v>-50.02</v>
+        <v>-0.01</v>
       </c>
       <c r="M12" s="30">
-        <f>SUM(M4:M11)</f>
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="N12" s="32">
-        <f>SUM(N4:N11)</f>
-        <v>-458.46999999999997</v>
+        <v>-6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="84"/>
+      <c r="A13" s="33">
+        <v>10</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+      <c r="L13" s="30">
+        <v>0</v>
+      </c>
+      <c r="M13" s="30">
+        <v>0</v>
+      </c>
+      <c r="N13" s="32">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="87"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="38"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
+      <c r="A14" s="33">
+        <v>11</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0</v>
+      </c>
+      <c r="K14" s="31">
+        <v>0</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0</v>
+      </c>
+      <c r="M14" s="30">
+        <v>0</v>
+      </c>
+      <c r="N14" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="33">
+        <v>12</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="30">
+        <v>-0.02</v>
+      </c>
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+      <c r="K15" s="31">
+        <v>0</v>
+      </c>
+      <c r="L15" s="30">
+        <v>0</v>
+      </c>
+      <c r="M15" s="30">
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="33">
+        <v>13</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
+      <c r="K16" s="31">
+        <v>0</v>
+      </c>
+      <c r="L16" s="30">
+        <v>0</v>
+      </c>
+      <c r="M16" s="30">
+        <v>0</v>
+      </c>
+      <c r="N16" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="33">
+        <v>14</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0</v>
+      </c>
+      <c r="K17" s="31">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30">
+        <v>0</v>
+      </c>
+      <c r="M17" s="30">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="33">
+        <v>15</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="31">
+        <v>0</v>
+      </c>
+      <c r="L18" s="30">
+        <v>0</v>
+      </c>
+      <c r="M18" s="30">
+        <v>0</v>
+      </c>
+      <c r="N18" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="33">
+        <v>16</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+      <c r="K19" s="31">
+        <v>0</v>
+      </c>
+      <c r="L19" s="30">
+        <v>0</v>
+      </c>
+      <c r="M19" s="30">
+        <v>0</v>
+      </c>
+      <c r="N19" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="33">
+        <v>17</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J20" s="31">
+        <v>0</v>
+      </c>
+      <c r="K20" s="31">
+        <v>0</v>
+      </c>
+      <c r="L20" s="30">
+        <v>0</v>
+      </c>
+      <c r="M20" s="30">
+        <v>0</v>
+      </c>
+      <c r="N20" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="33">
+        <v>18</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="30">
+        <v>-0.47</v>
+      </c>
+      <c r="J21" s="31">
+        <v>0</v>
+      </c>
+      <c r="K21" s="31">
+        <v>0</v>
+      </c>
+      <c r="L21" s="30">
+        <v>-0.06</v>
+      </c>
+      <c r="M21" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="N21" s="32">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="33">
+        <v>19</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="30">
+        <v>-134.29</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0</v>
+      </c>
+      <c r="K22" s="31">
+        <v>0</v>
+      </c>
+      <c r="L22" s="30">
+        <v>-16.11</v>
+      </c>
+      <c r="M22" s="30">
+        <v>2.69</v>
+      </c>
+      <c r="N22" s="32">
+        <v>-147.70999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="33">
+        <v>20</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="30">
+        <v>-6.36</v>
+      </c>
+      <c r="J23" s="31">
+        <v>0</v>
+      </c>
+      <c r="K23" s="31">
+        <v>0</v>
+      </c>
+      <c r="L23" s="30">
+        <v>-0.76</v>
+      </c>
+      <c r="M23" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="N23" s="32">
+        <v>-6.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="33">
+        <v>21</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J24" s="31">
+        <v>0</v>
+      </c>
+      <c r="K24" s="31">
+        <v>0</v>
+      </c>
+      <c r="L24" s="30">
+        <v>0</v>
+      </c>
+      <c r="M24" s="30">
+        <v>0</v>
+      </c>
+      <c r="N24" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="33">
+        <v>22</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J25" s="31">
+        <v>0</v>
+      </c>
+      <c r="K25" s="31">
+        <v>0</v>
+      </c>
+      <c r="L25" s="30">
+        <v>0</v>
+      </c>
+      <c r="M25" s="30">
+        <v>0</v>
+      </c>
+      <c r="N25" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="33">
+        <v>23</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J26" s="31">
+        <v>0</v>
+      </c>
+      <c r="K26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="30">
+        <v>0</v>
+      </c>
+      <c r="M26" s="30">
+        <v>0</v>
+      </c>
+      <c r="N26" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="33">
+        <v>24</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="30">
+        <v>0</v>
+      </c>
+      <c r="J27" s="31">
+        <v>0</v>
+      </c>
+      <c r="K27" s="31">
+        <v>-0.02</v>
+      </c>
+      <c r="L27" s="30">
+        <v>0</v>
+      </c>
+      <c r="M27" s="30">
+        <v>0</v>
+      </c>
+      <c r="N27" s="32">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="33">
+        <v>25</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J28" s="31">
+        <v>0</v>
+      </c>
+      <c r="K28" s="31">
+        <v>0</v>
+      </c>
+      <c r="L28" s="30">
+        <v>0</v>
+      </c>
+      <c r="M28" s="30">
+        <v>0</v>
+      </c>
+      <c r="N28" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="33">
+        <v>26</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" s="30">
+        <v>-0.03</v>
+      </c>
+      <c r="J29" s="31">
+        <v>0</v>
+      </c>
+      <c r="K29" s="31">
+        <v>0</v>
+      </c>
+      <c r="L29" s="30">
+        <v>0</v>
+      </c>
+      <c r="M29" s="30">
+        <v>0</v>
+      </c>
+      <c r="N29" s="32">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="33">
+        <v>27</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J30" s="31">
+        <v>0</v>
+      </c>
+      <c r="K30" s="31">
+        <v>0</v>
+      </c>
+      <c r="L30" s="30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="33">
+        <v>28</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="30">
+        <v>-0.04</v>
+      </c>
+      <c r="J31" s="31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="30">
+        <v>0</v>
+      </c>
+      <c r="M31" s="30">
+        <v>0</v>
+      </c>
+      <c r="N31" s="32">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="33">
+        <v>29</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J32" s="31">
+        <v>0</v>
+      </c>
+      <c r="K32" s="31">
+        <v>0</v>
+      </c>
+      <c r="L32" s="30">
+        <v>0</v>
+      </c>
+      <c r="M32" s="30">
+        <v>0</v>
+      </c>
+      <c r="N32" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" s="30">
+        <v>0</v>
+      </c>
+      <c r="J33" s="31">
+        <v>0</v>
+      </c>
+      <c r="K33" s="31">
+        <v>-2.46</v>
+      </c>
+      <c r="L33" s="30">
+        <v>0</v>
+      </c>
+      <c r="M33" s="30">
+        <v>0</v>
+      </c>
+      <c r="N33" s="32">
+        <v>-2.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="33">
+        <v>31</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J34" s="31">
+        <v>0</v>
+      </c>
+      <c r="K34" s="31">
+        <v>0</v>
+      </c>
+      <c r="L34" s="30">
+        <v>0</v>
+      </c>
+      <c r="M34" s="30">
+        <v>0</v>
+      </c>
+      <c r="N34" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
+        <v>32</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="30">
+        <v>-0.02</v>
+      </c>
+      <c r="J35" s="31">
+        <v>0</v>
+      </c>
+      <c r="K35" s="31">
+        <v>0</v>
+      </c>
+      <c r="L35" s="30">
+        <v>0</v>
+      </c>
+      <c r="M35" s="30">
+        <v>0</v>
+      </c>
+      <c r="N35" s="32">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="33">
+        <v>33</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J36" s="31">
+        <v>0</v>
+      </c>
+      <c r="K36" s="31">
+        <v>0</v>
+      </c>
+      <c r="L36" s="30">
+        <v>0</v>
+      </c>
+      <c r="M36" s="30">
+        <v>0</v>
+      </c>
+      <c r="N36" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="33">
+        <v>34</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="J37" s="31">
+        <v>0</v>
+      </c>
+      <c r="K37" s="31">
+        <v>0</v>
+      </c>
+      <c r="L37" s="30">
+        <v>0</v>
+      </c>
+      <c r="M37" s="30">
+        <v>0</v>
+      </c>
+      <c r="N37" s="32">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="32"/>
+    </row>
+    <row r="39" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="30">
+        <v>-175.72999999999993</v>
+      </c>
+      <c r="J39" s="31">
+        <v>0</v>
+      </c>
+      <c r="K39" s="31">
+        <v>-2.9699999999999998</v>
+      </c>
+      <c r="L39" s="30">
+        <v>-21.05</v>
+      </c>
+      <c r="M39" s="30">
+        <v>3.52</v>
+      </c>
+      <c r="N39" s="32">
+        <v>-196.22999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="37"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="37"/>
+      <c r="E49" s="37"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>